--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13905"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>float[]</t>
+  </si>
+  <si>
+    <t>TRangeInt[]</t>
   </si>
   <si>
     <t>float</t>
@@ -98,7 +101,67 @@
     <t>病毒总数量</t>
   </si>
   <si>
-    <t>简单难度</t>
+    <t>是否需要等待清除病毒后，才进入下一关</t>
+  </si>
+  <si>
+    <t>是否弹出“病毒入侵”警告</t>
+  </si>
+  <si>
+    <t>1关</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[3,1]</t>
+  </si>
+  <si>
+    <t>[2~3,3]</t>
+  </si>
+  <si>
+    <t>[1,2~5]</t>
+  </si>
+  <si>
+    <t>[200,200]</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>[1~2,2~7]</t>
+  </si>
+  <si>
+    <t>[200,201]</t>
+  </si>
+  <si>
+    <t>[2~3,3~4]</t>
+  </si>
+  <si>
+    <t>[5~20,10~15]</t>
+  </si>
+  <si>
+    <t>[200,202]</t>
+  </si>
+  <si>
+    <t>[1~2,5~10]</t>
+  </si>
+  <si>
+    <t>[200,203]</t>
+  </si>
+  <si>
+    <t>[4,5]</t>
+  </si>
+  <si>
+    <t>[1~5,20~30]</t>
+  </si>
+  <si>
+    <t>[200,204]</t>
+  </si>
+  <si>
+    <t>2-10关</t>
   </si>
   <si>
     <t>[1,3,4,7,9,10,12,13,15]</t>
@@ -114,12 +177,6 @@
   </si>
   <si>
     <t>[200,300,200,300,200,300,200,200,200]</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>[7,9,12]</t>
@@ -145,12 +202,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +218,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +252,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -182,29 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -215,14 +324,6 @@
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,43 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -279,6 +343,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -286,22 +365,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,13 +375,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,169 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,11 +569,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,81 +666,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,149 +684,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1112,29 +1172,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="27.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
-    <col min="7" max="8" width="40.25" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="19.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.1666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="40.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.1666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1158,268 +1222,464 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>33</v>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>33</v>
+      <c r="L6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>33</v>
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2">
         <v>0.6</v>
       </c>
-      <c r="J8">
+      <c r="J13" s="2">
         <v>25</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>32</v>
+      <c r="K13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$91</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="280">
   <si>
     <t>id</t>
   </si>
@@ -107,7 +110,7 @@
     <t>是否弹出“病毒入侵”警告</t>
   </si>
   <si>
-    <t>1关</t>
+    <t>低血量中尺寸普通病毒</t>
   </si>
   <si>
     <t>[1,1]</t>
@@ -116,85 +119,748 @@
     <t>[3,1]</t>
   </si>
   <si>
-    <t>[2~3,3]</t>
-  </si>
-  <si>
-    <t>[1,2~5]</t>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[1,1~10]</t>
+  </si>
+  <si>
+    <t>[250,250]</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>中血量中尺寸普通病毒</t>
+  </si>
+  <si>
+    <t>[1,5~10]</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>高血量中尺寸普通病毒</t>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+  </si>
+  <si>
+    <t>[3,1,1]</t>
+  </si>
+  <si>
+    <t>[1,2,2~3]</t>
+  </si>
+  <si>
+    <t>[1,10~15,15~20]</t>
+  </si>
+  <si>
+    <t>[250,250,250]</t>
+  </si>
+  <si>
+    <t>高血量中尺寸普通病毒（低概率）</t>
+  </si>
+  <si>
+    <t>[1~3,3]</t>
+  </si>
+  <si>
+    <t>[1~10,15~20]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸普通病毒（高概率）</t>
+  </si>
+  <si>
+    <t>[3,3~4]</t>
+  </si>
+  <si>
+    <t>[1~5,10~15]</t>
   </si>
   <si>
     <t>[200,200]</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>[1~2,2~7]</t>
-  </si>
-  <si>
-    <t>[200,201]</t>
+    <t>高血量小尺寸普通病毒1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[20~30]</t>
+  </si>
+  <si>
+    <t>[300]</t>
+  </si>
+  <si>
+    <t>高血量小尺寸普通病毒2</t>
+  </si>
+  <si>
+    <t>[40~50]</t>
+  </si>
+  <si>
+    <t>高血量小尺寸普通病毒3</t>
+  </si>
+  <si>
+    <t>[50~60]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸变速病毒（低概率）</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
+  </si>
+  <si>
+    <t>[2,2~4]</t>
+  </si>
+  <si>
+    <t>[10~25,20~30]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸变速病毒（高概率）</t>
+  </si>
+  <si>
+    <t>[2,3~4]</t>
+  </si>
+  <si>
+    <t>[20~25,25~35]</t>
+  </si>
+  <si>
+    <t>低血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>[5~10,10~20]</t>
+  </si>
+  <si>
+    <t>中血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[1~2,2]</t>
+  </si>
+  <si>
+    <t>[5~10,15~30]</t>
+  </si>
+  <si>
+    <t>高血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[1~10,25~40]</t>
+  </si>
+  <si>
+    <t>1血量大尺寸普通病毒（巨型病毒平衡用）</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[200]</t>
+  </si>
+  <si>
+    <t>低血量中尺寸治愈病毒</t>
+  </si>
+  <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>[10~15,1~15]</t>
+  </si>
+  <si>
+    <t>中血量中尺寸治愈病毒</t>
+  </si>
+  <si>
+    <t>[1~15,10~15]</t>
+  </si>
+  <si>
+    <t>高血量中尺寸治愈病毒</t>
+  </si>
+  <si>
+    <t>[20~40,25~35]</t>
+  </si>
+  <si>
+    <t>中血量中尺寸治愈病毒(过渡)</t>
+  </si>
+  <si>
+    <t>[5~20,10~25]</t>
+  </si>
+  <si>
+    <t>中血量大尺寸治愈病毒</t>
+  </si>
+  <si>
+    <t>[4,3~4]</t>
+  </si>
+  <si>
+    <t>[10~20,15~20]</t>
+  </si>
+  <si>
+    <t>低血量中尺寸减速病毒</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[250]</t>
+  </si>
+  <si>
+    <t>中血量中尺寸减速病毒</t>
+  </si>
+  <si>
+    <t>[50~100]</t>
+  </si>
+  <si>
+    <t>高血量小尺寸膨胀病毒</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[50~80]</t>
+  </si>
+  <si>
+    <t>高血量中尺寸碰撞病毒</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[80~100]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸吞噬病毒</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[3~4]</t>
+  </si>
+  <si>
+    <t>[10~50]</t>
+  </si>
+  <si>
+    <t>高血量小尺寸治愈病毒</t>
+  </si>
+  <si>
+    <t>[60~80]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸普通病毒2(无提示)</t>
   </si>
   <si>
     <t>[2~3,3~4]</t>
   </si>
   <si>
-    <t>[5~20,10~15]</t>
-  </si>
-  <si>
-    <t>[200,202]</t>
-  </si>
-  <si>
-    <t>[1~2,5~10]</t>
-  </si>
-  <si>
-    <t>[200,203]</t>
-  </si>
-  <si>
-    <t>[4,5]</t>
-  </si>
-  <si>
-    <t>[1~5,20~30]</t>
-  </si>
-  <si>
-    <t>[200,204]</t>
-  </si>
-  <si>
-    <t>2-10关</t>
-  </si>
-  <si>
-    <t>[1,3,4,7,9,10,12,13,15]</t>
-  </si>
-  <si>
-    <t>[1,1,1,1,1,1,1,1,2]</t>
-  </si>
-  <si>
-    <t>[1,2,3,4,1,2,3,4,1]</t>
-  </si>
-  <si>
-    <t>[1000,1000,1000,1000,1000,1000,1000,1000,1000]</t>
-  </si>
-  <si>
-    <t>[200,300,200,300,200,300,200,200,200]</t>
-  </si>
-  <si>
-    <t>[7,9,12]</t>
-  </si>
-  <si>
-    <t>[1,1,1]</t>
-  </si>
-  <si>
-    <t>[4,4,4]</t>
-  </si>
-  <si>
-    <t>[2500,2600,2700]</t>
-  </si>
-  <si>
-    <t>[200,200,200]</t>
-  </si>
-  <si>
-    <t>[3000,3000,2000,3000,1000,1000,1000,2000,1000]</t>
+    <t>[1~5,15~25]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸治愈病毒2(无提示)</t>
+  </si>
+  <si>
+    <t>高血量大尺寸变速病毒（无提示）</t>
+  </si>
+  <si>
+    <t>[2~3,4]</t>
+  </si>
+  <si>
+    <t>[5~10,15~25]</t>
+  </si>
+  <si>
+    <t>中血量小尺寸变速病毒1</t>
+  </si>
+  <si>
+    <t>中血量小尺寸治愈病毒1</t>
+  </si>
+  <si>
+    <t>[10~30]</t>
+  </si>
+  <si>
+    <t>小型碰撞病毒</t>
+  </si>
+  <si>
+    <t>[15,15]</t>
+  </si>
+  <si>
+    <t>[30~60,30~40]</t>
+  </si>
+  <si>
+    <t>[300,300]</t>
+  </si>
+  <si>
+    <t>碰撞病毒</t>
+  </si>
+  <si>
+    <t>[2~3,2]</t>
+  </si>
+  <si>
+    <t>[30~60,20~35]</t>
+  </si>
+  <si>
+    <t>[300,250]</t>
+  </si>
+  <si>
+    <t>巨型碰撞病毒</t>
+  </si>
+  <si>
+    <t>[2~4,4]</t>
+  </si>
+  <si>
+    <t>[20~40,20~30]</t>
+  </si>
+  <si>
+    <t>小型减速病毒</t>
+  </si>
+  <si>
+    <t>[9,9]</t>
+  </si>
+  <si>
+    <t>[20~40,50~80]</t>
+  </si>
+  <si>
+    <t>减速病毒</t>
+  </si>
+  <si>
+    <t>[1~3,2]</t>
+  </si>
+  <si>
+    <t>[20~80,10~100]</t>
+  </si>
+  <si>
+    <t>巨型减速病毒</t>
+  </si>
+  <si>
+    <t>[1~3,4]</t>
+  </si>
+  <si>
+    <t>[40~100,100~120]</t>
+  </si>
+  <si>
+    <t>巨型碰撞病毒（无提示）</t>
+  </si>
+  <si>
+    <t>巨型减速病毒（无提示）</t>
+  </si>
+  <si>
+    <t>超高血量碰撞病毒</t>
+  </si>
+  <si>
+    <t>[1~2]</t>
+  </si>
+  <si>
+    <t>超高血量减速病毒</t>
+  </si>
+  <si>
+    <t>[1~3]</t>
+  </si>
+  <si>
+    <t>[200~320]</t>
+  </si>
+  <si>
+    <t>低血量碰撞病毒</t>
+  </si>
+  <si>
+    <t>[1~3,1~2]</t>
+  </si>
+  <si>
+    <t>[10~50,70~150]</t>
+  </si>
+  <si>
+    <t>低血量减速病毒</t>
+  </si>
+  <si>
+    <t>[50~100,50]</t>
+  </si>
+  <si>
+    <t>小型膨胀病毒</t>
+  </si>
+  <si>
+    <t>[10,10]</t>
+  </si>
+  <si>
+    <t>[20~40,10~30]</t>
+  </si>
+  <si>
+    <t>膨胀病毒</t>
+  </si>
+  <si>
+    <t>[40~60,10~40]</t>
+  </si>
+  <si>
+    <t>巨型膨胀病毒</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>超高血量膨胀病毒</t>
+  </si>
+  <si>
+    <t>[60~120]</t>
+  </si>
+  <si>
+    <t>低血量膨胀病毒</t>
+  </si>
+  <si>
+    <t>[1~2,1~3]</t>
+  </si>
+  <si>
+    <t>[15~30,50~60]</t>
+  </si>
+  <si>
+    <t>低血量大型变速病毒+碰撞病毒</t>
+  </si>
+  <si>
+    <t>[3,15]</t>
+  </si>
+  <si>
+    <t>[2~3,2~4]</t>
+  </si>
+  <si>
+    <t>[20~80,50~150]</t>
+  </si>
+  <si>
+    <t>高血量巨型膨胀病毒</t>
+  </si>
+  <si>
+    <t>[20~40,60~80]</t>
+  </si>
+  <si>
+    <t>中型变速+普通病毒</t>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>[10~20,20~30]</t>
+  </si>
+  <si>
+    <t>中型变速+普通+治愈病毒</t>
+  </si>
+  <si>
+    <t>[1,3,4]</t>
+  </si>
+  <si>
+    <t>[2,2,2~3]</t>
+  </si>
+  <si>
+    <t>[20~40,20~40,50~80]</t>
+  </si>
+  <si>
+    <t>中型变速+普通+膨胀病毒</t>
+  </si>
+  <si>
+    <t>[1,3,10]</t>
+  </si>
+  <si>
+    <t>[40~50,30~50,60~90]</t>
+  </si>
+  <si>
+    <t>[250,250,300]</t>
+  </si>
+  <si>
+    <t>高血量巨型变速病毒(无提示)</t>
+  </si>
+  <si>
+    <t>[3,3]</t>
+  </si>
+  <si>
+    <t>[20~40,60~100]</t>
+  </si>
+  <si>
+    <t>高血量巨型普通病毒（无提示）</t>
+  </si>
+  <si>
+    <t>[20~30,30~50]</t>
+  </si>
+  <si>
+    <t>高血量巨型吞噬病毒（无提示）</t>
+  </si>
+  <si>
+    <t>小型吞噬病毒</t>
+  </si>
+  <si>
+    <t>[80~150]</t>
+  </si>
+  <si>
+    <t>中型吞噬病毒</t>
+  </si>
+  <si>
+    <t>[100~150]</t>
+  </si>
+  <si>
+    <t>大型吞噬病毒</t>
+  </si>
+  <si>
+    <t>高血量普通病毒随机组</t>
+  </si>
+  <si>
+    <t>[1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[1~3,1~3,2~3,2~3]</t>
+  </si>
+  <si>
+    <t>[1~10,1~20,10~50,100~500]</t>
+  </si>
+  <si>
+    <t>[300,300,300,300]</t>
+  </si>
+  <si>
+    <t>高血量膨胀病毒随机组</t>
+  </si>
+  <si>
+    <t>[4,4,10,10]</t>
+  </si>
+  <si>
+    <t>[10~50,20~80,100~150,100~200]</t>
+  </si>
+  <si>
+    <t>高血量变速病毒随机组</t>
+  </si>
+  <si>
+    <t>[1,1,3,3]</t>
+  </si>
+  <si>
+    <t>[5~10,5~20,10~50,200~300]</t>
+  </si>
+  <si>
+    <t>高血量再生病毒随机组</t>
+  </si>
+  <si>
+    <t>[1,4,1,12]</t>
+  </si>
+  <si>
+    <t>[10~20,20~50,100~200,100~200]</t>
+  </si>
+  <si>
+    <t>高血量巨型吞噬病毒</t>
+  </si>
+  <si>
+    <t>高血量病毒随机组</t>
+  </si>
+  <si>
+    <t>[1,3,4,7,10,15]</t>
+  </si>
+  <si>
+    <t>[3,3,2,2,1,1]</t>
+  </si>
+  <si>
+    <t>[1~3,1~3,2~3,2~3,2~3,3]</t>
+  </si>
+  <si>
+    <t>[1~10,1~20,10~100,100~200,100~500,10~100]</t>
+  </si>
+  <si>
+    <t>[300,300,300,300,300,300]</t>
+  </si>
+  <si>
+    <t>普通病毒boss</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[20~50]</t>
+  </si>
+  <si>
+    <t>变速病毒boss</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>减速病毒boss</t>
+  </si>
+  <si>
+    <t>[200~300]</t>
+  </si>
+  <si>
+    <t>碰撞病毒boss</t>
+  </si>
+  <si>
+    <t>[150~200]</t>
+  </si>
+  <si>
+    <t>治愈病毒boss</t>
+  </si>
+  <si>
+    <t>随机boss组</t>
+  </si>
+  <si>
+    <t>[3,4,9,15]</t>
+  </si>
+  <si>
+    <t>[4~5,4~5,4~5,4~5]</t>
+  </si>
+  <si>
+    <t>[20~30,20~30,20~30,20~30]</t>
+  </si>
+  <si>
+    <t>[200,200,200,200]</t>
+  </si>
+  <si>
+    <t>膨胀病毒boss</t>
+  </si>
+  <si>
+    <t>[4~5]</t>
+  </si>
+  <si>
+    <t>[400~500]</t>
+  </si>
+  <si>
+    <t>普通+变速+治愈+膨胀+碰撞病毒随机组</t>
+  </si>
+  <si>
+    <t>[1,3,4,10,15]</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,1]</t>
+  </si>
+  <si>
+    <t>[1~3,1~3,2~3,2~3,1~3]</t>
+  </si>
+  <si>
+    <t>[10~50,20~80,100~200,100~200,200~400]</t>
+  </si>
+  <si>
+    <t>[300,300,300,300,300]</t>
+  </si>
+  <si>
+    <t>吞噬病毒boss</t>
+  </si>
+  <si>
+    <t>[500~600]</t>
+  </si>
+  <si>
+    <t>再生病毒随机组2</t>
+  </si>
+  <si>
+    <t>[3,4,15,1,12]</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,3]</t>
+  </si>
+  <si>
+    <t>[1~2,1~3,1~3,2~3,2~3]</t>
+  </si>
+  <si>
+    <t>[10,10~20,30~50,50~120,100~150]</t>
+  </si>
+  <si>
+    <t>巨型再生病毒</t>
+  </si>
+  <si>
+    <t>[1,1,1,2,3]</t>
+  </si>
+  <si>
+    <t>[1~2,2~3,1~4,3~4,4]</t>
+  </si>
+  <si>
+    <t>再生病毒随机组3</t>
+  </si>
+  <si>
+    <t>[1,7,10,1,12]</t>
+  </si>
+  <si>
+    <t>[1~2,1~2,2~3,2~3,3]</t>
+  </si>
+  <si>
+    <t>再生病毒boss</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[300~500]</t>
+  </si>
+  <si>
+    <t>小型防御病毒</t>
+  </si>
+  <si>
+    <t>[1,4,9,1,1,13]</t>
+  </si>
+  <si>
+    <t>[1,1,1,2,2,2]</t>
+  </si>
+  <si>
+    <t>[1~2,1~2,1~2,1~2,1~3,1~3]</t>
+  </si>
+  <si>
+    <t>[10,10~20,30~50,50~120,100~150,100~150]</t>
+  </si>
+  <si>
+    <t>中型防御病毒</t>
+  </si>
+  <si>
+    <t>[3,4,10,1,1,13]</t>
+  </si>
+  <si>
+    <t>[2~3,2~3,2~3,2~3,2~3,2~3]</t>
+  </si>
+  <si>
+    <t>[250,250,250,250,250,250]</t>
+  </si>
+  <si>
+    <t>大型防御病毒</t>
+  </si>
+  <si>
+    <t>[15,9,15,1,1,13]</t>
+  </si>
+  <si>
+    <t>[3~4,3~4,3~4,3~4,3~4,3~4]</t>
+  </si>
+  <si>
+    <t>[200,200,200,200,200,200]</t>
+  </si>
+  <si>
+    <t>防御病毒随机组</t>
+  </si>
+  <si>
+    <t>[3,4,15,1,13]</t>
+  </si>
+  <si>
+    <t>[1,1,1,1,2]</t>
+  </si>
+  <si>
+    <t>[1~3,1~3,2~3,2~4,2~4]</t>
+  </si>
+  <si>
+    <t>[10,10~20,30~50,50~120,200~500]</t>
+  </si>
+  <si>
+    <t>防御病毒随机组2</t>
+  </si>
+  <si>
+    <t>[1,7,10,1,13]</t>
+  </si>
+  <si>
+    <t>[10,10~20,30~50,50~120,100~300]</t>
+  </si>
+  <si>
+    <t>防御病毒boss(无提示)</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[800~1000]</t>
+  </si>
+  <si>
+    <t>变速病毒boss(无提示)</t>
+  </si>
+  <si>
+    <t>减速病毒boss(无提示)</t>
+  </si>
+  <si>
+    <t>碰撞病毒boss(无提示)</t>
+  </si>
+  <si>
+    <t>治愈病毒boss(无提示)</t>
+  </si>
+  <si>
+    <t>小尺寸普通病毒</t>
   </si>
 </sst>
 </file>
@@ -202,10 +868,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,13 +888,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -244,23 +904,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +918,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -280,64 +940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,9 +964,71 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,43 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +1089,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +1131,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,97 +1209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +1232,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +1271,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -604,41 +1296,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,16 +1323,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,16 +1350,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,128 +1368,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1171,22 +1850,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="8" width="40.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.4333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.6666666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.1666666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
@@ -1229,7 +1911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" hidden="1" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1264,11 +1946,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1302,387 +1984,3369 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" hidden="1" spans="1:12">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:12">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="1:12">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:12">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:12">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="1:12">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:12">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:12">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:12">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:12">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="1:12">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:12">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:12">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:12">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:12">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:12">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:12">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:12">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A31" s="5">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:12">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:12">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A38" s="5">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A40" s="5">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A41" s="5">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A42" s="5">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:12">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="G46" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:12">
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:12">
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:12">
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:12">
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="K51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:12">
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="5">
+        <v>4</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="5">
+        <v>4</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:12">
+      <c r="A55" s="5">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="5">
+        <v>4</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A56" s="5">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J56" s="5">
+        <v>2</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A59" s="5">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>2</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A60" s="5">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="5">
+        <v>2</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="5">
+        <v>2</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="D62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:12">
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="5">
         <v>0.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J63" s="5">
+        <v>4</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="D64" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I64" s="5">
         <v>0.1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J64" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="K64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J67" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="K67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:12">
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:12">
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:12">
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:12">
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:12">
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:12">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J75" s="5">
+        <v>4</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="5">
+        <v>4</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J78" s="5">
+        <v>2</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J79" s="5">
+        <v>4</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J81" s="5">
+        <v>3</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A82" s="5">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J82" s="5">
+        <v>3</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A83" s="5">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J83" s="5">
+        <v>2</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A84" s="5">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J84" s="5">
+        <v>4</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A85" s="5">
+        <v>82</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J85" s="5">
+        <v>4</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A86" s="5">
+        <v>83</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A87" s="5">
+        <v>84</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="5">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A88" s="5">
+        <v>85</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="5">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A89" s="5">
+        <v>86</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="5">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A90" s="5">
+        <v>87</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="5">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" hidden="1" spans="1:12">
+      <c r="A91" s="5">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J12" s="2">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="2">
-        <v>25</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="I91" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J91" s="5">
+        <v>2</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L91" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L91">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="小型膨胀病毒"/>
+        <filter val="超高血量膨胀病毒"/>
+        <filter val="中型变速+普通+膨胀病毒"/>
+        <filter val="膨胀病毒"/>
+        <filter val="低血量膨胀病毒"/>
+        <filter val="高血量小尺寸膨胀病毒"/>
+        <filter val="高血量巨型膨胀病毒"/>
+        <filter val="巨型膨胀病毒"/>
+        <filter val="膨胀病毒boss"/>
+        <filter val="高血量膨胀病毒随机组"/>
+        <filter val="普通+变速+治愈+膨胀+碰撞病毒随机组"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>TRangeInt[]</t>
+  </si>
+  <si>
+    <t>TRange[]</t>
   </si>
   <si>
     <t>float</t>
@@ -869,8 +872,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -888,7 +891,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -896,16 +905,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,15 +945,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,66 +962,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,7 +976,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1017,18 +984,54 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1041,7 +1044,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,175 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,12 +1238,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1257,30 +1273,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,8 +1295,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,156 +1319,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,64 +1499,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1849,28 +1852,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="39.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.4333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.6696428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6696428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.4375" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.1666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6696428571429" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.1696428571429" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
@@ -1911,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1928,86 +1931,86 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="5">
         <v>0.5</v>
@@ -2016,36 +2019,36 @@
         <v>4</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" spans="1:12">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -2054,36 +2057,36 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -2092,36 +2095,36 @@
         <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5">
         <v>0.5</v>
@@ -2130,36 +2133,36 @@
         <v>2</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5">
         <v>0.5</v>
@@ -2168,36 +2171,36 @@
         <v>4</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="5">
         <v>0.1</v>
@@ -2206,36 +2209,36 @@
         <v>1</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="I10" s="5">
         <v>0.1</v>
@@ -2244,36 +2247,36 @@
         <v>1</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" s="5">
         <v>0.1</v>
@@ -2282,36 +2285,36 @@
         <v>1</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="5">
         <v>0.5</v>
@@ -2320,36 +2323,36 @@
         <v>3</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="5">
         <v>0.5</v>
@@ -2358,36 +2361,36 @@
         <v>3</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="5">
         <v>0.5</v>
@@ -2396,36 +2399,36 @@
         <v>3</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:12">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -2434,36 +2437,36 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:12">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -2472,36 +2475,36 @@
         <v>2</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>75</v>
+      <c r="B17" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2510,36 +2513,36 @@
         <v>4</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -2548,36 +2551,36 @@
         <v>2</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -2586,36 +2589,36 @@
         <v>2</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -2624,36 +2627,36 @@
         <v>2</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5">
         <v>0.5</v>
@@ -2662,36 +2665,36 @@
         <v>2</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5">
         <v>0.5</v>
@@ -2700,36 +2703,36 @@
         <v>2</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:12">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" s="5">
         <v>0.5</v>
@@ -2738,37 +2741,37 @@
         <v>2</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:12">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
@@ -2776,10 +2779,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:12">
@@ -2787,25 +2790,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -2814,36 +2817,36 @@
         <v>2</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:12">
       <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26" s="5">
         <v>0.5</v>
@@ -2852,36 +2855,36 @@
         <v>2</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:12">
       <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" s="5">
         <v>0.5</v>
@@ -2890,36 +2893,36 @@
         <v>2</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:12">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I28" s="5">
         <v>0.1</v>
@@ -2928,36 +2931,36 @@
         <v>1</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:12">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" s="5">
         <v>0.5</v>
@@ -2966,36 +2969,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:12">
       <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" s="5">
         <v>0.5</v>
@@ -3004,36 +3007,36 @@
         <v>2</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:12">
       <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="5">
         <v>0.5</v>
@@ -3042,36 +3045,36 @@
         <v>2</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:12">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" s="5">
         <v>0.1</v>
@@ -3080,36 +3083,36 @@
         <v>2</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:12">
       <c r="A33" s="5">
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5">
         <v>0.1</v>
@@ -3118,36 +3121,36 @@
         <v>2</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:12">
       <c r="A34" s="5">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I34" s="5">
         <v>0.1</v>
@@ -3156,36 +3159,36 @@
         <v>1</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="5">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" s="5">
         <v>0.1</v>
@@ -3194,36 +3197,36 @@
         <v>2</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" s="5">
         <v>0.1</v>
@@ -3232,36 +3235,36 @@
         <v>2</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:12">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I37" s="5">
         <v>0.1</v>
@@ -3270,36 +3273,36 @@
         <v>1</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:12">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I38" s="5">
         <v>0.1</v>
@@ -3308,36 +3311,36 @@
         <v>2</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:12">
       <c r="A39" s="5">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" s="5">
         <v>0.1</v>
@@ -3346,36 +3349,36 @@
         <v>2</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:12">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" s="5">
         <v>0.1</v>
@@ -3384,36 +3387,36 @@
         <v>2</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:12">
       <c r="A41" s="5">
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" s="5">
         <v>0.1</v>
@@ -3422,36 +3425,36 @@
         <v>2</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:12">
       <c r="A42" s="5">
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I42" s="5">
         <v>0.1</v>
@@ -3460,36 +3463,36 @@
         <v>2</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:12">
       <c r="A43" s="5">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I43" s="5">
         <v>0.1</v>
@@ -3498,36 +3501,36 @@
         <v>2</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:12">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I44" s="5">
         <v>0.1</v>
@@ -3536,36 +3539,36 @@
         <v>2</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:12">
       <c r="A45" s="5">
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I45" s="5">
         <v>0.1</v>
@@ -3574,10 +3577,10 @@
         <v>2</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:12">
@@ -3585,25 +3588,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I46" s="5">
         <v>0.1</v>
@@ -3612,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:12">
@@ -3623,25 +3626,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I47" s="5">
         <v>0.1</v>
@@ -3650,10 +3653,10 @@
         <v>2</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:12">
@@ -3661,25 +3664,25 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I48" s="5">
         <v>0.1</v>
@@ -3688,10 +3691,10 @@
         <v>2</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:12">
@@ -3699,25 +3702,25 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" s="5">
         <v>0.1</v>
@@ -3726,10 +3729,10 @@
         <v>2</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:12">
@@ -3737,25 +3740,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I50" s="5">
         <v>0.1</v>
@@ -3764,36 +3767,36 @@
         <v>2</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:12">
       <c r="A51" s="5">
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" s="5">
         <v>0.5</v>
@@ -3802,10 +3805,10 @@
         <v>3</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:12">
@@ -3813,25 +3816,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I52" s="5">
         <v>0.1</v>
@@ -3840,36 +3843,36 @@
         <v>2</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:12">
       <c r="A53" s="5">
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I53" s="5">
         <v>0.5</v>
@@ -3878,36 +3881,36 @@
         <v>4</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:12">
       <c r="A54" s="5">
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I54" s="5">
         <v>0.5</v>
@@ -3916,10 +3919,10 @@
         <v>4</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:12">
@@ -3927,25 +3930,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I55" s="5">
         <v>0.5</v>
@@ -3954,36 +3957,36 @@
         <v>4</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:12">
       <c r="A56" s="5">
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" s="5">
         <v>0.1</v>
@@ -3992,36 +3995,36 @@
         <v>2</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:12">
       <c r="A57" s="5">
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I57" s="5">
         <v>0.1</v>
@@ -4030,36 +4033,36 @@
         <v>2</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:12">
       <c r="A58" s="5">
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" s="5">
         <v>0.1</v>
@@ -4068,36 +4071,36 @@
         <v>1</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:12">
       <c r="A59" s="5">
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I59" s="5">
         <v>0.1</v>
@@ -4106,36 +4109,36 @@
         <v>2</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:12">
       <c r="A60" s="5">
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I60" s="5">
         <v>0.5</v>
@@ -4144,36 +4147,36 @@
         <v>2</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:12">
       <c r="A61" s="5">
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" s="5">
         <v>0.5</v>
@@ -4182,36 +4185,36 @@
         <v>2</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:12">
       <c r="A62" s="5">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I62" s="5">
         <v>0.1</v>
@@ -4220,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:12">
@@ -4231,25 +4234,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C63" s="5">
         <v>3</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I63" s="5">
         <v>0.1</v>
@@ -4258,36 +4261,36 @@
         <v>4</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:12">
       <c r="A64" s="5">
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I64" s="5">
         <v>0.1</v>
@@ -4296,36 +4299,36 @@
         <v>4</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:12">
       <c r="A65" s="5">
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I65" s="5">
         <v>0.1</v>
@@ -4334,36 +4337,36 @@
         <v>4</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:12">
       <c r="A66" s="5">
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" s="5">
         <v>0.1</v>
@@ -4372,36 +4375,36 @@
         <v>1</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:12">
       <c r="A67" s="5">
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I67" s="5">
         <v>0.1</v>
@@ -4410,36 +4413,36 @@
         <v>6</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="5">
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C68" s="5">
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4448,36 +4451,36 @@
         <v>1</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="5">
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" s="5">
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4486,36 +4489,36 @@
         <v>1</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="5">
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C70" s="5">
         <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4524,36 +4527,36 @@
         <v>1</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="5">
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" s="5">
         <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4562,36 +4565,36 @@
         <v>1</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:12">
       <c r="A72" s="5">
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4600,36 +4603,36 @@
         <v>1</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:12">
       <c r="A73" s="5">
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C73" s="5">
         <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4638,10 +4641,10 @@
         <v>2</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:12">
@@ -4649,25 +4652,25 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="5">
         <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4676,10 +4679,10 @@
         <v>1</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:12">
@@ -4687,25 +4690,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I75" s="5">
         <v>0.1</v>
@@ -4714,36 +4717,36 @@
         <v>4</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:12">
       <c r="A76" s="5">
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C76" s="5">
         <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4752,36 +4755,36 @@
         <v>1</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:12">
       <c r="A77" s="5">
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C77" s="5">
         <v>2</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I77" s="5">
         <v>0.1</v>
@@ -4790,36 +4793,36 @@
         <v>4</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:12">
       <c r="A78" s="5">
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C78" s="5">
-        <v>2</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="H78" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I78" s="5">
         <v>0.1</v>
@@ -4828,36 +4831,36 @@
         <v>2</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:12">
       <c r="A79" s="5">
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I79" s="5">
         <v>0.1</v>
@@ -4866,36 +4869,36 @@
         <v>4</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:12">
       <c r="A80" s="5">
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C80" s="5">
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4904,36 +4907,36 @@
         <v>1</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:12">
       <c r="A81" s="5">
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I81" s="5">
         <v>0.1</v>
@@ -4942,36 +4945,36 @@
         <v>3</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:12">
       <c r="A82" s="5">
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="H82" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I82" s="5">
         <v>0.5</v>
@@ -4980,36 +4983,36 @@
         <v>3</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:12">
       <c r="A83" s="5">
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I83" s="5">
         <v>0.5</v>
@@ -5018,36 +5021,36 @@
         <v>2</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:12">
       <c r="A84" s="5">
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C84" s="5">
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I84" s="5">
         <v>0.1</v>
@@ -5056,36 +5059,36 @@
         <v>4</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:12">
       <c r="A85" s="5">
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C85" s="5">
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I85" s="5">
         <v>0.1</v>
@@ -5094,36 +5097,36 @@
         <v>4</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:12">
       <c r="A86" s="5">
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -5132,36 +5135,36 @@
         <v>1</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:12">
       <c r="A87" s="5">
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
@@ -5170,36 +5173,36 @@
         <v>1</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:12">
       <c r="A88" s="5">
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
@@ -5208,36 +5211,36 @@
         <v>1</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="1:12">
       <c r="A89" s="5">
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C89" s="5">
         <v>3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
@@ -5246,36 +5249,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:12">
       <c r="A90" s="5">
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
@@ -5284,36 +5287,36 @@
         <v>1</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="1" hidden="1" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:12">
       <c r="A91" s="5">
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I91" s="5">
         <v>0.3</v>
@@ -5322,39 +5325,22 @@
         <v>2</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L91">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="小型膨胀病毒"/>
-        <filter val="超高血量膨胀病毒"/>
-        <filter val="中型变速+普通+膨胀病毒"/>
-        <filter val="膨胀病毒"/>
-        <filter val="低血量膨胀病毒"/>
-        <filter val="高血量小尺寸膨胀病毒"/>
-        <filter val="高血量巨型膨胀病毒"/>
-        <filter val="巨型膨胀病毒"/>
-        <filter val="膨胀病毒boss"/>
-        <filter val="高血量膨胀病毒随机组"/>
-        <filter val="普通+变速+治愈+膨胀+碰撞病毒随机组"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:L91"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5362,15 +5348,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5378,9 +5364,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$92</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="279">
   <si>
     <t>id</t>
   </si>
@@ -209,63 +209,63 @@
     <t>高血量大尺寸变速病毒（低概率）</t>
   </si>
   <si>
+    <t>[1,4]</t>
+  </si>
+  <si>
+    <t>[2,2~4]</t>
+  </si>
+  <si>
+    <t>[10~25,20~30]</t>
+  </si>
+  <si>
+    <t>高血量大尺寸变速病毒（高概率）</t>
+  </si>
+  <si>
+    <t>[2,3~4]</t>
+  </si>
+  <si>
+    <t>[20~25,25~35]</t>
+  </si>
+  <si>
+    <t>低血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>[5~10,10~20]</t>
+  </si>
+  <si>
+    <t>中血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[1~2,2]</t>
+  </si>
+  <si>
+    <t>[5~10,15~30]</t>
+  </si>
+  <si>
+    <t>高血量中尺寸变速病毒</t>
+  </si>
+  <si>
+    <t>[1~10,25~40]</t>
+  </si>
+  <si>
+    <t>1血量大尺寸普通病毒（巨型病毒平衡用）</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[200]</t>
+  </si>
+  <si>
+    <t>低血量中尺寸治愈病毒</t>
+  </si>
+  <si>
     <t>[1,3]</t>
   </si>
   <si>
-    <t>[2,2~4]</t>
-  </si>
-  <si>
-    <t>[10~25,20~30]</t>
-  </si>
-  <si>
-    <t>高血量大尺寸变速病毒（高概率）</t>
-  </si>
-  <si>
-    <t>[2,3~4]</t>
-  </si>
-  <si>
-    <t>[20~25,25~35]</t>
-  </si>
-  <si>
-    <t>低血量中尺寸变速病毒</t>
-  </si>
-  <si>
-    <t>[2,1]</t>
-  </si>
-  <si>
-    <t>[5~10,10~20]</t>
-  </si>
-  <si>
-    <t>中血量中尺寸变速病毒</t>
-  </si>
-  <si>
-    <t>[1~2,2]</t>
-  </si>
-  <si>
-    <t>[5~10,15~30]</t>
-  </si>
-  <si>
-    <t>高血量中尺寸变速病毒</t>
-  </si>
-  <si>
-    <t>[1~10,25~40]</t>
-  </si>
-  <si>
-    <t>1血量大尺寸普通病毒（巨型病毒平衡用）</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[200]</t>
-  </si>
-  <si>
-    <t>低血量中尺寸治愈病毒</t>
-  </si>
-  <si>
-    <t>[1,4]</t>
-  </si>
-  <si>
     <t>[10~15,1~15]</t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>低血量中尺寸减速病毒</t>
   </si>
   <si>
-    <t>[9]</t>
+    <t>[12]</t>
   </si>
   <si>
     <t>[2]</t>
@@ -416,7 +416,7 @@
     <t>小型减速病毒</t>
   </si>
   <si>
-    <t>[9,9]</t>
+    <t>[12,12]</t>
   </si>
   <si>
     <t>[20~40,50~80]</t>
@@ -515,7 +515,7 @@
     <t>低血量大型变速病毒+碰撞病毒</t>
   </si>
   <si>
-    <t>[3,15]</t>
+    <t>[4,15]</t>
   </si>
   <si>
     <t>[2~3,2~4]</t>
@@ -542,7 +542,7 @@
     <t>中型变速+普通+治愈病毒</t>
   </si>
   <si>
-    <t>[1,3,4]</t>
+    <t>[1,4,4]</t>
   </si>
   <si>
     <t>[2,2,2~3]</t>
@@ -554,7 +554,7 @@
     <t>中型变速+普通+膨胀病毒</t>
   </si>
   <si>
-    <t>[1,3,10]</t>
+    <t>[1,4,10]</t>
   </si>
   <si>
     <t>[40~50,30~50,60~90]</t>
@@ -566,7 +566,7 @@
     <t>高血量巨型变速病毒(无提示)</t>
   </si>
   <si>
-    <t>[3,3]</t>
+    <t>[4,4]</t>
   </si>
   <si>
     <t>[20~40,60~100]</t>
@@ -623,7 +623,7 @@
     <t>高血量变速病毒随机组</t>
   </si>
   <si>
-    <t>[1,1,3,3]</t>
+    <t>[1,1,4,4]</t>
   </si>
   <si>
     <t>[5~10,5~20,10~50,200~300]</t>
@@ -644,7 +644,7 @@
     <t>高血量病毒随机组</t>
   </si>
   <si>
-    <t>[1,3,4,7,10,15]</t>
+    <t>[1,4,4,7,10,15]</t>
   </si>
   <si>
     <t>[3,3,2,2,1,1]</t>
@@ -671,9 +671,6 @@
     <t>变速病毒boss</t>
   </si>
   <si>
-    <t>[3]</t>
-  </si>
-  <si>
     <t>减速病毒boss</t>
   </si>
   <si>
@@ -692,7 +689,7 @@
     <t>随机boss组</t>
   </si>
   <si>
-    <t>[3,4,9,15]</t>
+    <t>[4,4,12,15]</t>
   </si>
   <si>
     <t>[4~5,4~5,4~5,4~5]</t>
@@ -716,7 +713,7 @@
     <t>普通+变速+治愈+膨胀+碰撞病毒随机组</t>
   </si>
   <si>
-    <t>[1,3,4,10,15]</t>
+    <t>[1,4,4,10,15]</t>
   </si>
   <si>
     <t>[1,1,1,1,1]</t>
@@ -740,7 +737,7 @@
     <t>再生病毒随机组2</t>
   </si>
   <si>
-    <t>[3,4,15,1,12]</t>
+    <t>[4,4,15,1,12]</t>
   </si>
   <si>
     <t>[1,1,1,1,3]</t>
@@ -773,16 +770,13 @@
     <t>再生病毒boss</t>
   </si>
   <si>
-    <t>[12]</t>
-  </si>
-  <si>
     <t>[300~500]</t>
   </si>
   <si>
     <t>小型防御病毒</t>
   </si>
   <si>
-    <t>[1,4,9,1,1,13]</t>
+    <t>[1,4,12,1,1,7]</t>
   </si>
   <si>
     <t>[1,1,1,2,2,2]</t>
@@ -797,7 +791,7 @@
     <t>中型防御病毒</t>
   </si>
   <si>
-    <t>[3,4,10,1,1,13]</t>
+    <t>[4,4,10,1,1,7]</t>
   </si>
   <si>
     <t>[2~3,2~3,2~3,2~3,2~3,2~3]</t>
@@ -809,7 +803,7 @@
     <t>大型防御病毒</t>
   </si>
   <si>
-    <t>[15,9,15,1,1,13]</t>
+    <t>[15,12,15,1,1,7]</t>
   </si>
   <si>
     <t>[3~4,3~4,3~4,3~4,3~4,3~4]</t>
@@ -821,7 +815,7 @@
     <t>防御病毒随机组</t>
   </si>
   <si>
-    <t>[3,4,15,1,13]</t>
+    <t>[4,4,15,1,7]</t>
   </si>
   <si>
     <t>[1,1,1,1,2]</t>
@@ -836,7 +830,7 @@
     <t>防御病毒随机组2</t>
   </si>
   <si>
-    <t>[1,7,10,1,13]</t>
+    <t>[1,7,10,1,7]</t>
   </si>
   <si>
     <t>[10,10~20,30~50,50~120,100~300]</t>
@@ -845,9 +839,6 @@
     <t>防御病毒boss(无提示)</t>
   </si>
   <si>
-    <t>[13]</t>
-  </si>
-  <si>
     <t>[800~1000]</t>
   </si>
   <si>
@@ -864,6 +855,9 @@
   </si>
   <si>
     <t>小尺寸普通病毒</t>
+  </si>
+  <si>
+    <t>小尺寸普通病毒(卡波数用)</t>
   </si>
 </sst>
 </file>
@@ -871,10 +865,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -892,16 +886,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,6 +923,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -929,16 +946,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,16 +975,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,14 +1008,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
@@ -991,9 +1015,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,35 +1024,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,19 +1038,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,73 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,43 +1164,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,19 +1200,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,6 +1229,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1255,48 +1297,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,162 +1329,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,64 +1493,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1852,28 +1846,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="39.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.6696428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.6696428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.4375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.6696428571429" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.1696428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.4416666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.1666666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
@@ -2342,7 +2336,7 @@
       <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2485,7 +2479,7 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="2">
@@ -2530,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>72</v>
@@ -2568,10 +2562,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>72</v>
@@ -2606,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>72</v>
@@ -2644,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>72</v>
@@ -2682,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>89</v>
@@ -3026,7 +3020,7 @@
       <c r="D31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -3141,7 +3135,7 @@
         <v>120</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>31</v>
@@ -3179,7 +3173,7 @@
         <v>120</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>124</v>
@@ -3217,7 +3211,7 @@
         <v>120</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>128</v>
@@ -3255,7 +3249,7 @@
         <v>131</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>31</v>
@@ -3293,7 +3287,7 @@
         <v>131</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>134</v>
@@ -3331,7 +3325,7 @@
         <v>131</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>137</v>
@@ -3369,7 +3363,7 @@
         <v>120</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>137</v>
@@ -3407,7 +3401,7 @@
         <v>131</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>137</v>
@@ -3521,7 +3515,7 @@
         <v>120</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>147</v>
@@ -3559,7 +3553,7 @@
         <v>131</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>147</v>
@@ -3597,7 +3591,7 @@
         <v>152</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>31</v>
@@ -3635,7 +3629,7 @@
         <v>152</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>72</v>
@@ -3673,7 +3667,7 @@
         <v>152</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>157</v>
@@ -3749,7 +3743,7 @@
         <v>152</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>161</v>
@@ -3825,7 +3819,7 @@
         <v>152</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>66</v>
@@ -3977,7 +3971,7 @@
         <v>181</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>114</v>
@@ -4468,7 +4462,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>54</v>
@@ -4500,7 +4494,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="5">
         <v>3</v>
@@ -4515,7 +4509,7 @@
         <v>213</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>78</v>
@@ -4538,7 +4532,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="5">
         <v>3</v>
@@ -4553,7 +4547,7 @@
         <v>213</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>78</v>
@@ -4576,7 +4570,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="5">
         <v>3</v>
@@ -4614,25 +4608,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="5">
         <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>192</v>
       </c>
       <c r="F73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4652,7 +4646,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="5">
         <v>3</v>
@@ -4664,10 +4658,10 @@
         <v>54</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>78</v>
@@ -4690,25 +4684,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="I75" s="5">
         <v>0.1</v>
@@ -4728,7 +4722,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="5">
         <v>3</v>
@@ -4743,7 +4737,7 @@
         <v>213</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>78</v>
@@ -4766,25 +4760,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="5">
-        <v>2</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I77" s="5">
         <v>0.1</v>
@@ -4804,25 +4798,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="5">
-        <v>2</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="G78" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I78" s="5">
         <v>0.1</v>
@@ -4842,25 +4836,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="5">
-        <v>2</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="G79" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I79" s="5">
         <v>0.1</v>
@@ -4880,13 +4874,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" s="5">
         <v>3</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>54</v>
@@ -4895,7 +4889,7 @@
         <v>213</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>78</v>
@@ -4918,22 +4912,22 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>211</v>
@@ -4956,25 +4950,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="G82" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="I82" s="5">
         <v>0.5</v>
@@ -4994,25 +4988,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="G83" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="I83" s="5">
         <v>0.5</v>
@@ -5032,25 +5026,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="5">
-        <v>2</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I84" s="5">
         <v>0.1</v>
@@ -5070,25 +5064,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C85" s="5">
-        <v>2</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I85" s="5">
         <v>0.1</v>
@@ -5108,13 +5102,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>54</v>
@@ -5123,7 +5117,7 @@
         <v>213</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>78</v>
@@ -5146,13 +5140,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>54</v>
@@ -5184,7 +5178,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
@@ -5199,7 +5193,7 @@
         <v>213</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>78</v>
@@ -5222,7 +5216,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C89" s="5">
         <v>3</v>
@@ -5237,7 +5231,7 @@
         <v>213</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>78</v>
@@ -5260,7 +5254,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
@@ -5275,7 +5269,7 @@
         <v>213</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>78</v>
@@ -5298,7 +5292,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -5331,8 +5325,48 @@
         <v>36</v>
       </c>
     </row>
+    <row r="92" s="2" customFormat="1" spans="1:12">
+      <c r="A92" s="5">
+        <v>89</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L91"/>
+  <autoFilter ref="A1:L92">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5340,7 +5374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5348,7 +5382,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5356,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5364,7 +5398,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -665,7 +665,7 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>[20~50]</t>
+    <t>[30~50]</t>
   </si>
   <si>
     <t>变速病毒boss</t>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>膨胀病毒boss</t>
-  </si>
-  <si>
-    <t>[4~5]</t>
   </si>
   <si>
     <t>[400~500]</t>
@@ -865,10 +862,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -886,14 +883,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,16 +897,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -924,7 +913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,21 +929,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,41 +996,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1023,7 +1020,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,13 +1041,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1083,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,13 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,25 +1131,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,37 +1197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,43 +1215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,23 +1232,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,30 +1258,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,11 +1288,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,10 +1332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1347,133 +1344,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1851,9 +1848,9 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4585,7 +4582,7 @@
         <v>213</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>78</v>
@@ -4658,10 +4655,10 @@
         <v>54</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>78</v>
@@ -4684,25 +4681,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C75" s="5">
         <v>3</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="I75" s="5">
         <v>0.1</v>
@@ -4722,7 +4719,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76" s="5">
         <v>3</v>
@@ -4737,7 +4734,7 @@
         <v>213</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>78</v>
@@ -4760,25 +4757,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="5">
-        <v>2</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I77" s="5">
         <v>0.1</v>
@@ -4798,25 +4795,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C78" s="5">
-        <v>2</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="G78" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I78" s="5">
         <v>0.1</v>
@@ -4836,25 +4833,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="5">
-        <v>2</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="G79" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="5">
         <v>0.1</v>
@@ -4874,7 +4871,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" s="5">
         <v>3</v>
@@ -4889,7 +4886,7 @@
         <v>213</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>78</v>
@@ -4912,22 +4909,22 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>211</v>
@@ -4950,25 +4947,25 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="5">
-        <v>1</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F82" s="5" t="s">
+      <c r="G82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="I82" s="5">
         <v>0.5</v>
@@ -4988,25 +4985,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="I83" s="5">
         <v>0.5</v>
@@ -5026,25 +5023,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="5">
-        <v>2</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I84" s="5">
         <v>0.1</v>
@@ -5064,25 +5061,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="5">
-        <v>2</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I85" s="5">
         <v>0.1</v>
@@ -5102,7 +5099,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C86" s="5">
         <v>3</v>
@@ -5117,7 +5114,7 @@
         <v>213</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>78</v>
@@ -5140,7 +5137,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C87" s="5">
         <v>3</v>
@@ -5178,7 +5175,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="5">
         <v>3</v>
@@ -5216,7 +5213,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C89" s="5">
         <v>3</v>
@@ -5254,7 +5251,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C90" s="5">
         <v>3</v>
@@ -5292,7 +5289,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
@@ -5330,7 +5327,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>

--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$94</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -855,6 +855,15 @@
   </si>
   <si>
     <t>小尺寸普通病毒(卡波数用)</t>
+  </si>
+  <si>
+    <t>测试boss</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>[50]</t>
   </si>
 </sst>
 </file>
@@ -864,8 +873,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -906,93 +915,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1013,7 +938,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,6 +1015,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,13 +1044,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1104,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,37 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,19 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,61 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,6 +1219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,13 +1271,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,17 +1316,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,31 +1335,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,43 +1353,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1389,88 +1398,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1845,12 +1854,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomLeft" activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5360,8 +5369,84 @@
         <v>36</v>
       </c>
     </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
+        <v>90</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" s="2" customFormat="1" spans="1:12">
+      <c r="A94" s="2">
+        <v>91</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J94" s="2">
+        <v>2</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L92">
+  <autoFilter ref="A1:L94">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameWave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>[50]</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>[70~80]</t>
   </si>
 </sst>
 </file>
@@ -871,10 +877,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -891,15 +897,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -907,31 +921,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,14 +934,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -959,15 +941,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,41 +973,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,6 +994,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1044,7 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,13 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,13 +1092,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,55 +1146,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,19 +1182,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,43 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,39 +1241,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1301,6 +1274,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1318,11 +1302,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,10 +1347,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1353,133 +1359,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1854,12 +1860,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N75" sqref="N75"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5442,6 +5448,44 @@
         <v>36</v>
       </c>
       <c r="L94" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:12">
+      <c r="A95" s="2">
+        <v>92</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" s="9" t="s">
         <v>36</v>
       </c>
     </row>
